--- a/xlsx/社会政策_intext.xlsx
+++ b/xlsx/社会政策_intext.xlsx
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E6%94%BF%E7%AD%96</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
